--- a/data/stationData.xlsx
+++ b/data/stationData.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="460" windowWidth="12940" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="19960" windowHeight="16480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Henry" sheetId="1" r:id="rId1"/>
+    <sheet name="MinTemp" sheetId="2" r:id="rId2"/>
+    <sheet name="MaxTemp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="107">
   <si>
     <t>Month</t>
   </si>
@@ -342,6 +344,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Byrd</t>
+  </si>
+  <si>
+    <t>Byrd</t>
+  </si>
+  <si>
+    <t>stationname</t>
   </si>
 </sst>
 </file>
@@ -351,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +372,22 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,8 +407,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -396,7 +422,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4931,4 +4959,895 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CS3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>-10.9</v>
+      </c>
+      <c r="C2">
+        <v>-20.9</v>
+      </c>
+      <c r="D2">
+        <v>-31.1</v>
+      </c>
+      <c r="E2">
+        <v>-31.6</v>
+      </c>
+      <c r="F2">
+        <v>-35.1</v>
+      </c>
+      <c r="G2">
+        <v>-36.5</v>
+      </c>
+      <c r="H2">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="I2">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="J2">
+        <v>-36.5</v>
+      </c>
+      <c r="K2">
+        <v>-35.9</v>
+      </c>
+      <c r="L2">
+        <v>-20.9</v>
+      </c>
+      <c r="M2">
+        <v>-10</v>
+      </c>
+      <c r="N2">
+        <v>-11.2</v>
+      </c>
+      <c r="O2">
+        <v>-20</v>
+      </c>
+      <c r="P2">
+        <v>-31</v>
+      </c>
+      <c r="Q2">
+        <v>-33</v>
+      </c>
+      <c r="R2">
+        <v>-38.4</v>
+      </c>
+      <c r="S2">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="T2">
+        <v>-38.6</v>
+      </c>
+      <c r="U2">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="V2">
+        <v>-36.1</v>
+      </c>
+      <c r="W2">
+        <v>-31.4</v>
+      </c>
+      <c r="X2">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>-11.1</v>
+      </c>
+      <c r="Z2">
+        <v>-9.1</v>
+      </c>
+      <c r="AA2">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>-28.8</v>
+      </c>
+      <c r="AC2">
+        <v>-37</v>
+      </c>
+      <c r="AD2">
+        <v>-38.6</v>
+      </c>
+      <c r="AE2">
+        <v>-35.6</v>
+      </c>
+      <c r="AF2">
+        <v>-35.4</v>
+      </c>
+      <c r="AG2">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="AH2">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="AM2">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>-26.6</v>
+      </c>
+      <c r="AO2">
+        <v>-33.1</v>
+      </c>
+      <c r="AQ2">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="AR2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AS2">
+        <v>-31.9</v>
+      </c>
+      <c r="AT2">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="AU2">
+        <v>-26.1</v>
+      </c>
+      <c r="AV2">
+        <v>-19</v>
+      </c>
+      <c r="AW2">
+        <v>-8.5</v>
+      </c>
+      <c r="AX2">
+        <v>-10.5</v>
+      </c>
+      <c r="AY2">
+        <v>-22.8</v>
+      </c>
+      <c r="AZ2">
+        <v>-32.1</v>
+      </c>
+      <c r="BA2">
+        <v>-35</v>
+      </c>
+      <c r="BB2">
+        <v>-34.5</v>
+      </c>
+      <c r="BC2">
+        <v>-39.6</v>
+      </c>
+      <c r="BD2">
+        <v>-37</v>
+      </c>
+      <c r="BE2">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="BF2">
+        <v>-32.5</v>
+      </c>
+      <c r="BG2">
+        <v>-27.7</v>
+      </c>
+      <c r="BH2">
+        <v>-21.2</v>
+      </c>
+      <c r="BI2">
+        <v>-7.7</v>
+      </c>
+      <c r="BJ2">
+        <v>-10.5</v>
+      </c>
+      <c r="BK2">
+        <v>-20.5</v>
+      </c>
+      <c r="BL2">
+        <v>-29.3</v>
+      </c>
+      <c r="BM2">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="BN2">
+        <v>-32.9</v>
+      </c>
+      <c r="BO2">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="BP2">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="BQ2">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="BR2">
+        <v>-30.5</v>
+      </c>
+      <c r="BS2">
+        <v>-30.6</v>
+      </c>
+      <c r="BT2">
+        <v>-17.5</v>
+      </c>
+      <c r="BU2">
+        <v>-10.8</v>
+      </c>
+      <c r="BV2">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>-19</v>
+      </c>
+      <c r="BX2">
+        <v>-27.4</v>
+      </c>
+      <c r="BY2">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="BZ2">
+        <v>-32.6</v>
+      </c>
+      <c r="CA2">
+        <v>-33.4</v>
+      </c>
+      <c r="CB2">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="CC2">
+        <v>-39.6</v>
+      </c>
+      <c r="CD2">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>-26.6</v>
+      </c>
+      <c r="CF2">
+        <v>-23.2</v>
+      </c>
+      <c r="CG2">
+        <v>-8.5</v>
+      </c>
+      <c r="CH2">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="CI2">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="CJ2">
+        <v>-27.7</v>
+      </c>
+      <c r="CK2">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="CL2">
+        <v>-32.9</v>
+      </c>
+      <c r="CM2">
+        <v>-36.4</v>
+      </c>
+      <c r="CN2">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="CO2">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="CP2">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="CQ2">
+        <v>-28.5</v>
+      </c>
+      <c r="CR2">
+        <v>-16.2</v>
+      </c>
+      <c r="CS2">
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-37.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-48.6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-43.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-50.6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-56.6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-45.6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-55</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-55.1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-47.8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-38.9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-21.9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-25.1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-29.1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-41.1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-43.9</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-51.9</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-47.2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-59</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-47.2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-54.6</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-42.4</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-35.5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-24.2</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-31.6</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-39.6</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-54.5</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>-48.8</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-57.1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>-41.3</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>-49.1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>-62</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>-34</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>-22.9</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>-25</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>-33</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>-38.6</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>-42.5</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>-42.5</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>-54.1</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>-54</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>-53.7</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>-48.4</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>-43.7</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>-21.4</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>-25.4</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>-31.5</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>-51.2</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>-49.2</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>-55.4</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>-53.7</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>-59.2</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>-54.4</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>-42.4</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>-41.1</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>-23.8</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>-24.9</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>-36.9</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>-44.5</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>-48.3</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>-41.8</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>-48.9</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>-59.5</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>-53</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>-45.3</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>-44.5</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>-39</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>-29.2</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>-25</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>-45</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>-51.7</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>-50.4</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>-52.1</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>-59.6</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>-60.4</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>-51.8</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>-44.2</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>-42</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>-26.9</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>-23.3</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>-48.7</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>-52.6</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>-45.3</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>-54</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>-55.6</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>-61.2</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>-53.3</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>-42.4</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>-32.6</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>-23.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>